--- a/221-sécurité---ajouter-les-spécifications-vt/ig/StructureDefinition-esms-consent.xlsx
+++ b/221-sécurité---ajouter-les-spécifications-vt/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T15:56:30+00:00</t>
+    <t>2025-05-28T16:06:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/221-sécurité---ajouter-les-spécifications-vt/ig/StructureDefinition-esms-consent.xlsx
+++ b/221-sécurité---ajouter-les-spécifications-vt/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T16:06:29+00:00</t>
+    <t>2025-05-28T16:14:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
